--- a/data/predictions/race/aid_blacks/leveled/strongrepublican.xlsx
+++ b/data/predictions/race/aid_blacks/leveled/strongrepublican.xlsx
@@ -961,7 +961,7 @@
         <v>0.01551889404463306</v>
       </c>
       <c r="J34">
-        <v>0.2457718723828337</v>
+        <v>0.2553665953604345</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -981,7 +981,7 @@
         <v>0.01276721280029527</v>
       </c>
       <c r="J35">
-        <v>0.2651456527166337</v>
+        <v>0.2027083927989956</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1001,7 +1001,7 @@
         <v>0.01106605461063303</v>
       </c>
       <c r="J36">
-        <v>0.238449614671643</v>
+        <v>0.2356171484185841</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1021,7 +1021,7 @@
         <v>0.009556597098085975</v>
       </c>
       <c r="J37">
-        <v>0.266323371370557</v>
+        <v>0.2604457440866081</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1041,7 +1041,7 @@
         <v>0.008082121349568622</v>
       </c>
       <c r="J38">
-        <v>0.2545060897912005</v>
+        <v>0.2640289140077371</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1061,7 +1061,7 @@
         <v>0.006614029114312905</v>
       </c>
       <c r="J39">
-        <v>0.251385960174427</v>
+        <v>0.2540466717508646</v>
       </c>
     </row>
   </sheetData>
